--- a/algorithm/testbench/pcmmux.xlsx
+++ b/algorithm/testbench/pcmmux.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chenyu\RTL_work\RTL_work\UltraSound\algorithm\testbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22E0B68-0FCE-4177-A1C4-0BC0E800951A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C6B926-76C6-481C-9560-AF0E084A1FAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2026168C-CC0B-4042-8725-47D1C9FEE1DA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>wr_addr</t>
   </si>
@@ -124,6 +124,48 @@
   </si>
   <si>
     <t>valid_p</t>
+  </si>
+  <si>
+    <t>pcmaw=1</t>
+  </si>
+  <si>
+    <t>pcmaw&gt;1</t>
+  </si>
+  <si>
+    <t>pcm_in_valid</t>
+  </si>
+  <si>
+    <t>pcm</t>
+  </si>
+  <si>
+    <t>phase0</t>
+  </si>
+  <si>
+    <t>phase1</t>
+  </si>
+  <si>
+    <t>phase2</t>
+  </si>
+  <si>
+    <t>I0</t>
+  </si>
+  <si>
+    <t>Q0</t>
+  </si>
+  <si>
+    <t>mult_result</t>
+  </si>
+  <si>
+    <t>ipcm_out</t>
+  </si>
+  <si>
+    <t>qpcm_out</t>
+  </si>
+  <si>
+    <t>I0_32</t>
+  </si>
+  <si>
+    <t>Q0_32</t>
   </si>
 </sst>
 </file>
@@ -185,6 +227,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAD26E3-6F2E-4977-81A3-D94CAEB0D55B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="13898880"/>
+          <a:ext cx="1226820" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,15 +592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132DC023-D26D-41D3-AACB-137C2BB7D6ED}">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -818,6 +926,11 @@
       <c r="C25" t="str">
         <f t="shared" si="1"/>
         <v>1F0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1724,7 +1837,9 @@
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2190,13 +2305,19 @@
       <c r="P73" s="1"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2208,13 +2329,27 @@
       <c r="P74" s="1"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2226,14 +2361,26 @@
       <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -2244,14 +2391,30 @@
       <c r="P76" s="1"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -2262,14 +2425,30 @@
       <c r="P77" s="1"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -2280,12 +2459,18 @@
       <c r="P78" s="1"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2298,12 +2483,16 @@
       <c r="P79" s="1"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -2316,13 +2505,17 @@
       <c r="P80" s="1"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -2369,9 +2562,602 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
     </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/algorithm/testbench/pcmmux.xlsx
+++ b/algorithm/testbench/pcmmux.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chenyu\RTL_work\RTL_work\UltraSound\algorithm\testbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C6B926-76C6-481C-9560-AF0E084A1FAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481DBF62-2086-4CF2-8007-9B5500F05588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2026168C-CC0B-4042-8725-47D1C9FEE1DA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="97">
   <si>
     <t>wr_addr</t>
   </si>
@@ -166,6 +166,162 @@
   </si>
   <si>
     <t>Q0_32</t>
+  </si>
+  <si>
+    <t>mix_freq</t>
+  </si>
+  <si>
+    <t>sincos_gen</t>
+  </si>
+  <si>
+    <t>resync</t>
+  </si>
+  <si>
+    <t>pcm_out_valid</t>
+  </si>
+  <si>
+    <t>sin_addr</t>
+  </si>
+  <si>
+    <t>pcm_out_ready</t>
+  </si>
+  <si>
+    <t>qpcm</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>pcm_out_valid_p</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>ad_valid</t>
+  </si>
+  <si>
+    <t>qpcm_in</t>
+  </si>
+  <si>
+    <t>Q-1</t>
+  </si>
+  <si>
+    <t>new_cycle</t>
+  </si>
+  <si>
+    <t>qcpm_in_d</t>
+  </si>
+  <si>
+    <t>Q-2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>ad_clk_en</t>
+  </si>
+  <si>
+    <t>qcpm_in_dd</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>acc_clr</t>
+  </si>
+  <si>
+    <t>tx_mix</t>
+  </si>
+  <si>
+    <t>ipcm</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>MI0</t>
+  </si>
+  <si>
+    <t>MQ0</t>
+  </si>
+  <si>
+    <t>ipcm_valid</t>
+  </si>
+  <si>
+    <t>mix_in</t>
+  </si>
+  <si>
+    <t>MI1</t>
+  </si>
+  <si>
+    <t>MQ1</t>
+  </si>
+  <si>
+    <t>MI0+MQ0</t>
+  </si>
+  <si>
+    <t>MI1+MQ1</t>
+  </si>
+  <si>
+    <t>ad_clk</t>
+  </si>
+  <si>
+    <t>da_clk</t>
+  </si>
+  <si>
+    <t>sc_ad_valid</t>
+  </si>
+  <si>
+    <t>sc_iqpcm_valid</t>
+  </si>
+  <si>
+    <t>IPCM</t>
+  </si>
+  <si>
+    <t>QPCM</t>
+  </si>
+  <si>
+    <t>ad_cnt</t>
+  </si>
+  <si>
+    <t>reg2ram</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>write_addr</t>
+  </si>
+  <si>
+    <t>write_trigger</t>
+  </si>
+  <si>
+    <t>wr_en</t>
+  </si>
+  <si>
+    <t>ram2reg</t>
+  </si>
+  <si>
+    <t>read_trigger</t>
+  </si>
+  <si>
+    <t>rd_en</t>
+  </si>
+  <si>
+    <t>read_data</t>
+  </si>
+  <si>
+    <t>write_busy</t>
   </si>
 </sst>
 </file>
@@ -592,15 +748,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132DC023-D26D-41D3-AACB-137C2BB7D6ED}">
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2287,7 +2443,9 @@
       <c r="P72" s="1"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2545,7 +2703,9 @@
       <c r="P82" s="1"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2563,13 +2723,20 @@
       <c r="P83" s="1"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -2579,13 +2746,24 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -2595,13 +2773,24 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -2611,13 +2800,19 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -2627,13 +2822,24 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -2643,13 +2849,17 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -2659,13 +2869,24 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3</v>
+      </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -2707,13 +2928,20 @@
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -2723,13 +2951,24 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -2739,13 +2978,24 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -2755,13 +3005,22 @@
       <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -2771,14 +3030,27 @@
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -2787,14 +3059,23 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -2803,14 +3084,30 @@
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>3</v>
+      </c>
+      <c r="H99" s="1">
+        <v>3</v>
+      </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -2835,7 +3132,9 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2851,15 +3150,33 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -2867,15 +3184,33 @@
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -2883,14 +3218,28 @@
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -2899,15 +3248,29 @@
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -2915,15 +3278,33 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -2931,15 +3312,33 @@
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -2963,55 +3362,105 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1</v>
+      </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3043,7 +3492,9 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3059,13 +3510,25 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -3075,11 +3538,17 @@
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -3091,11 +3560,17 @@
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -3107,14 +3582,24 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -3123,15 +3608,25 @@
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -3154,6 +3649,881 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>1</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>4</v>
+      </c>
+      <c r="H136">
+        <v>5</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="F137">
+        <v>6</v>
+      </c>
+      <c r="G137">
+        <v>6</v>
+      </c>
+      <c r="H137">
+        <v>6</v>
+      </c>
+      <c r="I137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1">
+        <v>3</v>
+      </c>
+      <c r="F143" s="1">
+        <v>4</v>
+      </c>
+      <c r="G143" s="1">
+        <v>5</v>
+      </c>
+      <c r="H143" s="1">
+        <v>6</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1">
+        <v>1</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
